--- a/LIST OF COMPONENTS/LIST - 11th October.xlsx
+++ b/LIST OF COMPONENTS/LIST - 11th October.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -278,9 +278,6 @@
     <t>Off Board (TX, RX, 3.3V and 0V)</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
     <t>HYT-271</t>
   </si>
   <si>
@@ -348,6 +345,51 @@
   </si>
   <si>
     <t>Grub Screws</t>
+  </si>
+  <si>
+    <t>http://uk.farnell.com/bourns/cr0805-fx-1002elf/resistor-10k-0-125w-1/dp/1612522</t>
+  </si>
+  <si>
+    <t>Break Away Headers - Machine Pin</t>
+  </si>
+  <si>
+    <t>Bourns 10k SMD 0805 Resistor</t>
+  </si>
+  <si>
+    <t>Texas Instruments DRV 8833</t>
+  </si>
+  <si>
+    <t>http://uk.farnell.com/texas-instruments/drv8833pwpr/ic-motor-driver-stepper-htssop/dp/2057085</t>
+  </si>
+  <si>
+    <t>http://uk.farnell.com/murata/grm21bc80g107me15l/capacitor-mlcc-x6s-100uf-4v-0805/dp/2494477</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Murata 100muF capacitor</t>
+  </si>
+  <si>
+    <t>Panasonic 75kOhm Resistor</t>
+  </si>
+  <si>
+    <t>http://uk.farnell.com/panasonic-electronic-components/erj6geyj753v/resistor-thick-film-75kohm-5-0805/dp/2323867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDK 2.2muF </t>
+  </si>
+  <si>
+    <t>http://uk.farnell.com/tdk/c2012x7r1h225k125ac/cap-mlcc-x7r-2-2uf-50v-0805/dp/2346945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kemet 0.01muF </t>
+  </si>
+  <si>
+    <t>http://uk.farnell.com/kemet/c0805c103k5ractu/cap-mlcc-x7r-10nf-50v-0805/dp/1414662</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/117</t>
   </si>
 </sst>
 </file>
@@ -357,7 +399,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,14 +418,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -495,12 +529,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -510,12 +543,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -549,11 +579,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -835,10 +866,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,7 +926,7 @@
       <c r="E2" s="1">
         <v>6.56</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1">
@@ -1291,63 +1322,78 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="29"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
       <c r="D21" s="4">
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>0.1</v>
+        <v>2.95</v>
+      </c>
+      <c r="F21" t="s">
+        <v>121</v>
       </c>
       <c r="G21" s="1">
         <f>D21*E21</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+        <v>8.8500000000000014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="4">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="1">
+        <f>D22*E22</f>
+        <v>0.24400000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="B23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D23" s="22">
         <v>20</v>
       </c>
-      <c r="E22" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" ref="G22:G48" si="0">D22*E22</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="4">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.1</v>
+      <c r="E23" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="G23:G47" si="0">D23*E23</f>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1355,309 +1401,340 @@
         <v>62</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="24">
+        <v>63</v>
+      </c>
+      <c r="D24" s="4">
         <v>20</v>
       </c>
       <c r="E24" s="1">
-        <v>0.1</v>
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>107</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.78400000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="4">
-        <v>10</v>
+        <v>64</v>
+      </c>
+      <c r="D25" s="23">
+        <v>20</v>
       </c>
       <c r="E25" s="1">
-        <v>0.1</v>
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>107</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.78400000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1">
-        <v>0.1</v>
+        <v>2.5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>111</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="B27" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="C27" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="4">
         <v>20</v>
       </c>
       <c r="E27" s="1">
-        <v>0.1</v>
+        <f>0.37/2</f>
+        <v>0.185</v>
+      </c>
+      <c r="F27" t="s">
+        <v>118</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D28" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E28" s="1">
-        <v>13.02</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>103</v>
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>120</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
-        <v>78.12</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1">
-        <v>26.49</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>93</v>
+        <v>13.02</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
-        <v>132.44999999999999</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="D30" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1">
-        <v>1.84</v>
+        <v>26.49</v>
       </c>
       <c r="F30" t="s">
         <v>92</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="0"/>
-        <v>18.400000000000002</v>
+        <v>132.44999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D31" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1">
-        <v>16.28</v>
+        <v>1.84</v>
       </c>
       <c r="F31" t="s">
         <v>91</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
+        <v>18.400000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>16.28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
         <v>48.84</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B34" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="24">
+        <v>3</v>
+      </c>
+      <c r="E34" s="11">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="25">
-        <v>3</v>
-      </c>
-      <c r="E33" s="12">
-        <v>32.590000000000003</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="12">
+      <c r="G34" s="11">
         <f t="shared" si="0"/>
         <v>97.77000000000001</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="H34" s="10"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B35" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="25">
+        <v>3</v>
+      </c>
+      <c r="E35" s="15">
+        <v>6.49</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="26">
-        <v>3</v>
-      </c>
-      <c r="E34" s="16">
-        <v>6.49</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="16">
+      <c r="G35" s="15">
         <f t="shared" si="0"/>
         <v>19.47</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="H35" s="14"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="27">
+      <c r="B36" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="26">
         <v>5</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E36" s="19">
         <v>0.98</v>
       </c>
-      <c r="F35" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="20">
+      <c r="F36" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="19">
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="21"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="4">
-        <v>4</v>
-      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>82</v>
       </c>
-      <c r="B37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D38" s="4">
         <v>5</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E38" s="1">
         <v>16.28</v>
       </c>
-      <c r="F37" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="F38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" s="1">
         <f t="shared" si="0"/>
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="28"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="4">
-        <v>10</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="27"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42" s="4">
         <v>10</v>
@@ -1670,61 +1747,76 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="4">
         <v>3</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E45" s="1">
         <v>50</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G45" s="1">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" t="s">
         <v>105</v>
       </c>
-      <c r="B46" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="4">
+      <c r="D47" s="4">
         <v>4</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E47" s="1">
         <v>40</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G47" s="1">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="4">
         <v>2</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="G47" s="1">
-        <f>D47*E47</f>
+      <c r="G48" s="1">
+        <f>D48*E48</f>
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="29">
-        <f>SUM(G2:G63)</f>
-        <v>1203.7</v>
+      <c r="B52" s="28">
+        <f>SUM(G2:G64)</f>
+        <v>1236.4739999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1732,23 +1824,20 @@
     <mergeCell ref="A19:B19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
-    <hyperlink ref="F8" r:id="rId6"/>
-    <hyperlink ref="F9" r:id="rId7"/>
-    <hyperlink ref="F11" r:id="rId8"/>
-    <hyperlink ref="F12" r:id="rId9"/>
-    <hyperlink ref="F14" r:id="rId10"/>
-    <hyperlink ref="F15" r:id="rId11"/>
-    <hyperlink ref="F16" r:id="rId12"/>
-    <hyperlink ref="F17" r:id="rId13"/>
-    <hyperlink ref="F28" r:id="rId14"/>
-    <hyperlink ref="F29" r:id="rId15"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="F11" r:id="rId7"/>
+    <hyperlink ref="F12" r:id="rId8"/>
+    <hyperlink ref="F14" r:id="rId9"/>
+    <hyperlink ref="F15" r:id="rId10"/>
+    <hyperlink ref="F16" r:id="rId11"/>
+    <hyperlink ref="F17" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId16"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId13"/>
 </worksheet>
 </file>
--- a/LIST OF COMPONENTS/LIST - 11th October.xlsx
+++ b/LIST OF COMPONENTS/LIST - 11th October.xlsx
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,7 +1335,7 @@
         <v>108</v>
       </c>
       <c r="D21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
         <v>2.95</v>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="G21" s="1">
         <f>D21*E21</f>
-        <v>8.8500000000000014</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1359,7 +1359,7 @@
         <v>113</v>
       </c>
       <c r="D22" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1">
         <v>1.2200000000000001E-2</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="G22" s="1">
         <f>D22*E22</f>
-        <v>0.24400000000000002</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
         <v>61</v>
       </c>
       <c r="D23" s="22">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E23" s="6">
         <v>0.22</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="G23" s="1">
         <f t="shared" ref="G23:G47" si="0">D23*E23</f>
-        <v>4.4000000000000004</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1407,7 +1407,7 @@
         <v>63</v>
       </c>
       <c r="D24" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1">
         <v>3.9199999999999999E-2</v>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>0.78400000000000003</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1431,7 +1431,7 @@
         <v>64</v>
       </c>
       <c r="D25" s="23">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1">
         <v>3.9199999999999999E-2</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>0.78400000000000003</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1479,7 +1479,7 @@
         <v>67</v>
       </c>
       <c r="D27" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1">
         <f>0.37/2</f>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
-        <v>3.7</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1504,7 +1504,7 @@
         <v>68</v>
       </c>
       <c r="D28" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1">
         <v>1.5599999999999999E-2</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
-        <v>0.312</v>
+        <v>0.77999999999999992</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B52" s="28">
         <f>SUM(G2:G64)</f>
-        <v>1236.4739999999999</v>
+        <v>1257.71</v>
       </c>
     </row>
   </sheetData>

--- a/LIST OF COMPONENTS/LIST - 11th October.xlsx
+++ b/LIST OF COMPONENTS/LIST - 11th October.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -251,9 +251,6 @@
     <t xml:space="preserve">GPS: </t>
   </si>
   <si>
-    <t>(Flat Motor)</t>
-  </si>
-  <si>
     <t>GPS Module</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>5V Voltage Regulator</t>
   </si>
   <si>
-    <t>11V Voltage Regulator?</t>
-  </si>
-  <si>
     <t>https://www.sparkfun.com/products/13284</t>
   </si>
   <si>
@@ -390,6 +384,24 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/117</t>
+  </si>
+  <si>
+    <t>HobbyKing Sponsorship</t>
+  </si>
+  <si>
+    <t>PCBTrain Sponsorship</t>
+  </si>
+  <si>
+    <t>SUB-TOTAL</t>
+  </si>
+  <si>
+    <t>Cake Sale</t>
+  </si>
+  <si>
+    <t>Outreach Costs</t>
+  </si>
+  <si>
+    <t>Website</t>
   </si>
 </sst>
 </file>
@@ -533,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -578,10 +590,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -866,22 +879,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="4"/>
     <col min="5" max="5" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.44140625" customWidth="1"/>
+    <col min="6" max="6" width="64.44140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -921,7 +935,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1">
         <v>6.56</v>
@@ -930,7 +944,8 @@
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <v>26.24</v>
+        <f>D2*E2</f>
+        <v>39.36</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>39</v>
@@ -956,6 +971,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
+        <f t="shared" ref="G3:G17" si="0">D3*E3</f>
         <v>10.98</v>
       </c>
       <c r="H3" s="4"/>
@@ -971,7 +987,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1">
         <v>7.46</v>
@@ -980,7 +996,8 @@
         <v>6</v>
       </c>
       <c r="G4" s="1">
-        <v>44.76</v>
+        <f t="shared" si="0"/>
+        <v>59.68</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>39</v>
@@ -997,7 +1014,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
         <v>8.8800000000000008</v>
@@ -1006,7 +1023,8 @@
         <v>7</v>
       </c>
       <c r="G5" s="1">
-        <v>53.28</v>
+        <f t="shared" si="0"/>
+        <v>71.040000000000006</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>39</v>
@@ -1023,7 +1041,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
         <v>2.5499999999999998</v>
@@ -1032,7 +1050,8 @@
         <v>8</v>
       </c>
       <c r="G6" s="1">
-        <v>15.3</v>
+        <f t="shared" si="0"/>
+        <v>25.5</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>39</v>
@@ -1049,7 +1068,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>13.35</v>
@@ -1058,7 +1077,8 @@
         <v>9</v>
       </c>
       <c r="G7" s="1">
-        <v>26.7</v>
+        <f t="shared" si="0"/>
+        <v>40.049999999999997</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>39</v>
@@ -1084,6 +1104,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="1">
+        <f t="shared" si="0"/>
         <v>12.78</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -1110,6 +1131,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="1">
+        <f t="shared" si="0"/>
         <v>25.54</v>
       </c>
       <c r="H9" s="4"/>
@@ -1134,6 +1156,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="1">
+        <f t="shared" si="0"/>
         <v>6.38</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -1160,7 +1183,8 @@
         <v>14</v>
       </c>
       <c r="G11" s="1">
-        <v>5.3</v>
+        <f t="shared" si="0"/>
+        <v>5.3000000000000007</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>39</v>
@@ -1186,6 +1210,7 @@
         <v>15</v>
       </c>
       <c r="G12" s="1">
+        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -1203,7 +1228,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1">
         <v>18.84</v>
@@ -1212,7 +1237,8 @@
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>37.68</v>
+        <f t="shared" si="0"/>
+        <v>56.519999999999996</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>39</v>
@@ -1238,7 +1264,8 @@
         <v>18</v>
       </c>
       <c r="G14" s="1">
-        <v>8.0399999999999991</v>
+        <f t="shared" si="0"/>
+        <v>8.0400000000000009</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" t="s">
@@ -1262,6 +1289,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="1">
+        <f t="shared" si="0"/>
         <v>41.59</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -1279,7 +1307,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
         <v>6.97</v>
@@ -1288,7 +1316,8 @@
         <v>20</v>
       </c>
       <c r="G16" s="1">
-        <v>13.94</v>
+        <f t="shared" si="0"/>
+        <v>20.91</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" t="s">
@@ -1303,7 +1332,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
         <v>7.98</v>
@@ -1312,7 +1341,8 @@
         <v>21</v>
       </c>
       <c r="G17" s="1">
-        <v>7.98</v>
+        <f t="shared" si="0"/>
+        <v>15.96</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>39</v>
@@ -1326,26 +1356,27 @@
         <v>58</v>
       </c>
       <c r="B19" s="29"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D21" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <v>2.95</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G21" s="1">
         <f>D21*E21</f>
-        <v>14.75</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1353,23 +1384,23 @@
         <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1">
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G22" s="1">
         <f>D22*E22</f>
-        <v>0.61</v>
+        <v>0.24400000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1377,23 +1408,23 @@
         <v>59</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E23" s="6">
         <v>0.22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:G47" si="0">D23*E23</f>
-        <v>11</v>
+        <f t="shared" ref="G23:G46" si="1">D23*E23</f>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1401,23 +1432,23 @@
         <v>62</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1">
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>1.96</v>
+        <f t="shared" si="1"/>
+        <v>0.78400000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1425,23 +1456,23 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D25" s="23">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1">
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>1.96</v>
+        <f t="shared" si="1"/>
+        <v>0.78400000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1449,7 +1480,7 @@
         <v>66</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>65</v>
@@ -1461,10 +1492,10 @@
         <v>2.5</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -1473,24 +1504,24 @@
         <v>59</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D27" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1">
         <f>0.37/2</f>
         <v>0.185</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>9.25</v>
+        <f t="shared" si="1"/>
+        <v>3.7</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1498,7 +1529,7 @@
         <v>59</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>68</v>
@@ -1510,10 +1541,10 @@
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.77999999999999992</v>
       </c>
     </row>
@@ -1522,23 +1553,23 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
         <v>13.02</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>78.12</v>
+        <f t="shared" si="1"/>
+        <v>65.099999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1546,23 +1577,23 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1">
         <v>26.49</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>132.44999999999999</v>
+        <f t="shared" si="1"/>
+        <v>79.47</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1570,7 +1601,7 @@
         <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
@@ -1582,10 +1613,10 @@
         <v>1.84</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.400000000000002</v>
       </c>
     </row>
@@ -1594,10 +1625,10 @@
         <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="4">
         <v>3</v>
@@ -1606,10 +1637,10 @@
         <v>16.28</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.84</v>
       </c>
     </row>
@@ -1620,39 +1651,39 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="11">
         <v>32.590000000000003</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G34" s="11">
-        <f t="shared" si="0"/>
-        <v>97.77000000000001</v>
+        <f t="shared" si="1"/>
+        <v>65.180000000000007</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" s="25">
         <v>3</v>
@@ -1661,10 +1692,10 @@
         <v>6.49</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G35" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.47</v>
       </c>
       <c r="H35" s="14"/>
@@ -1672,10 +1703,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="26">
@@ -1685,32 +1716,24 @@
         <v>0.98</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G36" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H36" s="18"/>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="4">
-        <v>4</v>
-      </c>
-    </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
         <v>82</v>
-      </c>
-      <c r="B38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" t="s">
-        <v>83</v>
       </c>
       <c r="D38" s="4">
         <v>5</v>
@@ -1719,22 +1742,22 @@
         <v>16.28</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81.400000000000006</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="27"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D42" s="4">
         <v>10</v>
@@ -1743,81 +1766,125 @@
         <v>2</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="4">
-        <v>10</v>
-      </c>
-      <c r="E43" s="1">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="4">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>50</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="4">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1">
+        <f>E46*D46</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="4">
         <v>2</v>
       </c>
-      <c r="G43" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="4">
+      <c r="E47" s="1">
         <v>3</v>
       </c>
-      <c r="E45" s="1">
-        <v>50</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="0"/>
+      <c r="G47" s="1">
+        <f>D47*E47</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="4">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1">
+        <f>E49*D49</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="28">
+        <f>SUM(G2:G63)</f>
+        <v>1108.5419999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="30">
+        <f>SUM(G2:G17)</f>
+        <v>458.19000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="30">
+        <f>G44</f>
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="4">
-        <v>4</v>
-      </c>
-      <c r="E47" s="1">
-        <v>40</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="4">
-        <v>2</v>
-      </c>
-      <c r="E48" s="1">
-        <v>3</v>
-      </c>
-      <c r="G48" s="1">
-        <f>D48*E48</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="28">
-        <f>SUM(G2:G64)</f>
-        <v>1257.71</v>
-      </c>
+      <c r="B57" s="30">
+        <f>B51-B53-B54-B55</f>
+        <v>200.35199999999986</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J58" s="30"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F59" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
